--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -193,7 +199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -205,6 +211,7 @@
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -226,25 +233,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -266,285 +279,330 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -211,7 +211,7 @@
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -280,329 +283,329 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
   <si>
     <t>Sezione</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>composizioneCompleta</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
   </si>
 </sst>
 </file>
@@ -202,7 +208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -212,7 +218,7 @@
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -608,6 +614,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,13 +83,46 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
+  </si>
+  <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Evento da annotare</t>
   </si>
   <si>
     <t>Id atto</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>evento.eventoCollegato</t>
@@ -208,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -395,10 +428,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
@@ -412,16 +445,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -435,16 +468,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -458,16 +491,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -481,16 +514,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -501,19 +534,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -524,19 +557,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -547,19 +580,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -570,19 +603,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -593,19 +626,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -616,24 +649,139 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,46 +83,13 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati generali</t>
-  </si>
-  <si>
-    <t>Data decorrenza</t>
+    <t>Evento da annotare</t>
+  </si>
+  <si>
+    <t>Id atto</t>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>dataDecorrenza</t>
-  </si>
-  <si>
-    <t>Ora decorrenza</t>
-  </si>
-  <si>
-    <t>oraDecorrenza</t>
-  </si>
-  <si>
-    <t>Minuto decorrenza</t>
-  </si>
-  <si>
-    <t>minutoDecorrenza</t>
-  </si>
-  <si>
-    <t>Motivo recupero</t>
-  </si>
-  <si>
-    <t>motivoRecupero</t>
-  </si>
-  <si>
-    <t>Descrizione recupero</t>
-  </si>
-  <si>
-    <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Evento da annotare</t>
-  </si>
-  <si>
-    <t>Id atto</t>
   </si>
   <si>
     <t>evento.eventoCollegato</t>
@@ -241,7 +208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -428,10 +395,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
@@ -445,16 +412,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -468,16 +435,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -491,16 +458,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -514,16 +481,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -534,19 +501,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -557,19 +524,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -580,19 +547,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -603,19 +570,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -626,19 +593,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -649,139 +616,24 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="59">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Evento da annotare</t>
@@ -241,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -534,19 +540,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -557,16 +563,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -580,7 +586,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
@@ -589,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -603,7 +609,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -612,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -626,7 +632,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -635,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -649,7 +655,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -658,10 +664,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -672,19 +678,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -695,7 +701,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -704,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -718,19 +724,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -741,7 +747,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>53</v>
@@ -750,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>54</v>
@@ -764,13 +770,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>14</v>
@@ -782,6 +788,29 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Evento da annotare</t>
@@ -247,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -540,19 +534,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -563,16 +557,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -586,7 +580,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
@@ -595,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -609,7 +603,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -618,7 +612,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -632,7 +626,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -641,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -655,7 +649,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -664,10 +658,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -678,19 +672,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -701,7 +695,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -710,10 +704,10 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -724,19 +718,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -747,7 +741,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>53</v>
@@ -756,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>54</v>
@@ -770,13 +764,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>14</v>
@@ -788,29 +782,6 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="61">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -247,7 +253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -309,63 +315,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -374,90 +380,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -466,21 +472,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -489,21 +495,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -512,21 +518,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -535,21 +541,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -558,44 +564,44 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -604,21 +610,21 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -627,21 +633,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -650,21 +656,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -673,113 +679,113 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
@@ -788,21 +794,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -811,7 +817,30 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Evento da annotare</t>
@@ -253,7 +259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -592,19 +598,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -615,16 +621,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -638,7 +644,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -647,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -661,7 +667,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -670,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -684,7 +690,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -693,7 +699,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -707,7 +713,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -716,10 +722,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -730,19 +736,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -753,7 +759,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>54</v>
@@ -762,10 +768,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -776,19 +782,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -799,7 +805,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
@@ -808,7 +814,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -822,13 +828,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>17</v>
@@ -840,6 +846,29 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
